--- a/Client/Assets/Excel/GameText.xlsx
+++ b/Client/Assets/Excel/GameText.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Perforce\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\WK_Project\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8E0EB5B-468C-4DA2-8C2C-32BF9ABC8446}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B940988-D60E-4D69-989D-1F21529BC445}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" xr2:uid="{BE0BAF33-1134-4A93-B729-040A5F21B430}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{BE0BAF33-1134-4A93-B729-040A5F21B430}"/>
   </bookViews>
   <sheets>
     <sheet name="Text" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="139" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="145" uniqueCount="111">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -435,6 +435,28 @@
   </si>
   <si>
     <t>그럴지도 몰라!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEMCharater_Test1</t>
+  </si>
+  <si>
+    <t>테스트 팬치</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEMCharacterTest_Skill</t>
+  </si>
+  <si>
+    <t>DEM 캐릭터 Test1 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DEM 캐릭터 Test1 스킬 1번 이름</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>마구긁기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -546,7 +568,24 @@
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="4">
+  <dxfs count="6">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="0" tint="-0.24994659260841701"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -894,16 +933,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F063EE88-CECF-4FCC-A09E-E6D311F25387}">
-  <dimension ref="A1:P64"/>
+  <dimension ref="A1:P80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="32" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="25.75" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="81.875" style="7" customWidth="1"/>
     <col min="4" max="4" width="74.625" customWidth="1"/>
     <col min="16" max="16" width="15.5" bestFit="1" customWidth="1"/>
@@ -1587,21 +1626,129 @@
       </c>
       <c r="D64" s="5"/>
     </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A65" s="5"/>
+      <c r="B65" s="5"/>
+      <c r="C65" s="6"/>
+      <c r="D65" s="5"/>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A66" s="5"/>
+      <c r="B66" s="5"/>
+      <c r="C66" s="6"/>
+      <c r="D66" s="5"/>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A67" s="5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B67" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="C67" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="D67" s="5"/>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A68" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B68" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="C68" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="D68" s="5"/>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A69" s="5"/>
+      <c r="B69" s="5"/>
+      <c r="C69" s="6"/>
+      <c r="D69" s="5"/>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A70" s="5"/>
+      <c r="B70" s="5"/>
+      <c r="C70" s="6"/>
+      <c r="D70" s="5"/>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A71" s="5"/>
+      <c r="B71" s="5"/>
+      <c r="C71" s="6"/>
+      <c r="D71" s="5"/>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A72" s="5"/>
+      <c r="B72" s="5"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="5"/>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A73" s="5"/>
+      <c r="B73" s="5"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="5"/>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A74" s="5"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="6"/>
+      <c r="D74" s="5"/>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A75" s="5"/>
+      <c r="B75" s="5"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="5"/>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A76" s="5"/>
+      <c r="B76" s="5"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="5"/>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A77" s="5"/>
+      <c r="B77" s="5"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="5"/>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A78" s="5"/>
+      <c r="B78" s="5"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="5"/>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A79" s="5"/>
+      <c r="B79" s="5"/>
+      <c r="C79" s="6"/>
+      <c r="D79" s="5"/>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A80" s="5"/>
+      <c r="B80" s="5"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="5"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <conditionalFormatting sqref="A11:A27 A34:A64">
-    <cfRule type="duplicateValues" dxfId="3" priority="9"/>
+  <conditionalFormatting sqref="A11:A27 A34:A80">
+    <cfRule type="duplicateValues" dxfId="5" priority="9"/>
   </conditionalFormatting>
   <conditionalFormatting sqref="A28">
-    <cfRule type="cellIs" dxfId="2" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="equal">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A29:A33">
-    <cfRule type="duplicateValues" dxfId="1" priority="1"/>
+    <cfRule type="duplicateValues" dxfId="3" priority="1"/>
   </conditionalFormatting>
-  <conditionalFormatting sqref="A65:A1048576 A1:A10">
-    <cfRule type="duplicateValues" dxfId="0" priority="6"/>
+  <conditionalFormatting sqref="A81:A1048576 A1:A10">
+    <cfRule type="duplicateValues" dxfId="2" priority="6"/>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
